--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/Programming/TellMeWhatToEat/docs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/Programming/TellMeWhatToEat/docs/data/questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="6" r:id="rId1"/>
+    <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,47 +24,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Hot or Cold</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>Sandwiches, Salad, or Sushi?</t>
+  </si>
+  <si>
+    <t>Soup?</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>tier</t>
-  </si>
-  <si>
-    <t>pre_req_id</t>
-  </si>
-  <si>
-    <t>Hot or Cold</t>
-  </si>
-  <si>
-    <t>options</t>
+    <t>European/American, Asian, Other?</t>
+  </si>
+  <si>
+    <t>Latin American,  European,  American?</t>
+  </si>
+  <si>
+    <t>Mexican, South American, Other?</t>
+  </si>
+  <si>
+    <t>Brazilian?</t>
+  </si>
+  <si>
+    <t>Mediterranean?</t>
+  </si>
+  <si>
+    <t>Greek?</t>
+  </si>
+  <si>
+    <t>French or Italian?</t>
+  </si>
+  <si>
+    <t>Burgers or Wings?</t>
+  </si>
+  <si>
+    <t>Chinese, Japanese, other?</t>
+  </si>
+  <si>
+    <t>Ramen or Sushi?</t>
+  </si>
+  <si>
+    <t>Thai?</t>
   </si>
   <si>
     <t>Meal or Snack?</t>
   </si>
   <si>
+    <t>Dim-sum?</t>
+  </si>
+  <si>
+    <t>Tapas?</t>
+  </si>
+  <si>
     <t>Sweet or Savory?</t>
   </si>
   <si>
     <t>Spicy?</t>
   </si>
   <si>
-    <t>Sandwiches, Salad, or Sushi?</t>
-  </si>
-  <si>
-    <t>Soup?</t>
-  </si>
-  <si>
     <t>Noodles?</t>
   </si>
   <si>
@@ -74,40 +107,19 @@
     <t>Healthy or Comfort?</t>
   </si>
   <si>
-    <t>Chinese, Japanese, other?</t>
-  </si>
-  <si>
-    <t>pre_req_answer_id</t>
-  </si>
-  <si>
-    <t>Latin American,  European,  American?</t>
-  </si>
-  <si>
-    <t>Mexican, South American, Other?</t>
-  </si>
-  <si>
-    <t>Ramen or Sushi?</t>
-  </si>
-  <si>
     <t>Meat, Carbs, or Veggies?</t>
   </si>
   <si>
-    <t>suggested questions?</t>
+    <t>Chicken, Red Meat, Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasta, Noodles, or Rice-bowl? </t>
   </si>
   <si>
     <t>Breakfast/brunch, Lunch, Dinner?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasta, Noodles, or Rice-bowl? </t>
-  </si>
-  <si>
-    <t>Mediterranean?</t>
-  </si>
-  <si>
-    <t>French or Italian?</t>
-  </si>
-  <si>
-    <t>Greek?</t>
+    <t>Breakfast or Brunch?</t>
   </si>
   <si>
     <t>Kosher, Halal, No Preference?</t>
@@ -116,31 +128,7 @@
     <t>Mexican?</t>
   </si>
   <si>
-    <t>Burgers or Wings?</t>
-  </si>
-  <si>
     <t>Pizza?</t>
-  </si>
-  <si>
-    <t>Thai?</t>
-  </si>
-  <si>
-    <t>Dim-sum?</t>
-  </si>
-  <si>
-    <t>Tapas?</t>
-  </si>
-  <si>
-    <t>European/American, Asian, Other?</t>
-  </si>
-  <si>
-    <t>Brazilian?</t>
-  </si>
-  <si>
-    <t>Chicken, Red Meat, Fish</t>
-  </si>
-  <si>
-    <t>Breakfast or Brunch?</t>
   </si>
   <si>
     <t>Quick?</t>
@@ -458,173 +446,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="43.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20101</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010101</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20102</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010201</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20103</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20104</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>202</v>
       </c>
@@ -632,40 +594,40 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20201</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20203</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,10 +635,10 @@
         <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,10 +646,10 @@
         <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -695,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -728,10 +690,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,10 +701,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,10 +723,10 @@
         <v>901</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,10 +734,10 @@
         <v>902</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,10 +756,10 @@
         <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,10 +767,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,10 +789,10 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -838,10 +800,10 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="5520" yWindow="-20300" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Quick?</t>
+  </si>
+  <si>
+    <t>tier</t>
   </si>
 </sst>
 </file>
@@ -446,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +467,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,8 +481,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>IF(A2&lt;100,1,IF(A2&lt;10000,2,IF(A2&lt;1000000,3,4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -486,8 +496,12 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D32" si="0">IF(A3&lt;100,1,IF(A3&lt;10000,2,IF(A3&lt;1000000,3,4)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
@@ -497,8 +511,12 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -508,8 +526,12 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -519,8 +541,12 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20101</v>
       </c>
@@ -530,8 +556,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010101</v>
       </c>
@@ -541,8 +571,12 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20102</v>
       </c>
@@ -552,8 +586,12 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010201</v>
       </c>
@@ -563,8 +601,12 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20103</v>
       </c>
@@ -574,8 +616,12 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20104</v>
       </c>
@@ -585,8 +631,12 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>202</v>
       </c>
@@ -596,8 +646,12 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20201</v>
       </c>
@@ -607,8 +661,12 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20203</v>
       </c>
@@ -618,8 +676,12 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -629,8 +691,12 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>301</v>
       </c>
@@ -640,8 +706,12 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>302</v>
       </c>
@@ -651,8 +721,12 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -662,8 +736,12 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -673,8 +751,12 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -684,8 +766,12 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
@@ -695,8 +781,12 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -706,8 +796,12 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
@@ -717,8 +811,12 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>901</v>
       </c>
@@ -728,8 +826,12 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>902</v>
       </c>
@@ -739,8 +841,12 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
@@ -750,8 +856,12 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1001</v>
       </c>
@@ -761,8 +871,12 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>11</v>
       </c>
@@ -772,8 +886,12 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
@@ -783,8 +901,12 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>13</v>
       </c>
@@ -794,8 +916,12 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>14</v>
       </c>
@@ -804,6 +930,10 @@
       </c>
       <c r="C32" t="s">
         <v>7</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/Programming/TellMeWhatToEat/docs/data/questions/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -132,22 +127,29 @@
   </si>
   <si>
     <t>Quick?</t>
-  </si>
-  <si>
-    <t>Feeling Trendy?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +179,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -229,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -264,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -441,23 +443,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,359 +470,355 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>20101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2010101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>20102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2010201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>20103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>20104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>20201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>20203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>302</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>201</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>20101</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>901</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>902</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2010101</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20102</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2010201</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20103</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>202</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20203</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>302</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>901</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>902</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1001</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>13</v>
-      </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4000" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Quick?</t>
-  </si>
-  <si>
-    <t>Feeling Trendy?</t>
   </si>
 </sst>
 </file>
@@ -449,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,21 +467,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -492,32 +489,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -525,10 +522,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>201</v>
+        <v>20101</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -536,21 +533,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20101</v>
+        <v>2010101</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2010101</v>
+        <v>20102</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -558,10 +555,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20102</v>
+        <v>2010201</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -569,21 +566,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2010201</v>
+        <v>20103</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20103</v>
+        <v>20104</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -591,10 +588,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20104</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -602,10 +599,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>202</v>
+        <v>20201</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -613,43 +610,43 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20201</v>
+        <v>20203</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20203</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -657,32 +654,32 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -690,10 +687,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -701,21 +698,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -723,10 +720,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9</v>
+        <v>901</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -734,10 +731,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -745,10 +742,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>902</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -756,10 +753,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -767,10 +764,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1001</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -778,21 +775,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -800,23 +797,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
         <v>7</v>
       </c>
     </row>

--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Quick?</t>
+  </si>
+  <si>
+    <t>tier</t>
   </si>
 </sst>
 </file>
@@ -446,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D32" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +467,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,8 +481,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>IF(A2&lt;10, 1, IF(A2&lt;100, 2, IF(A2&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -486,8 +496,12 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D32" si="0">IF(A3&lt;10, 1, IF(A3&lt;100, 2, IF(A3&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
@@ -497,8 +511,12 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -508,8 +526,12 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -519,8 +541,12 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20101</v>
       </c>
@@ -530,8 +556,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010101</v>
       </c>
@@ -541,8 +571,12 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20102</v>
       </c>
@@ -552,8 +586,12 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010201</v>
       </c>
@@ -563,8 +601,12 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20103</v>
       </c>
@@ -574,8 +616,12 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20104</v>
       </c>
@@ -585,8 +631,12 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>202</v>
       </c>
@@ -596,8 +646,12 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20201</v>
       </c>
@@ -607,8 +661,12 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20203</v>
       </c>
@@ -618,8 +676,12 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -629,8 +691,12 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>301</v>
       </c>
@@ -640,8 +706,12 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>302</v>
       </c>
@@ -651,8 +721,12 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -662,8 +736,12 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -673,8 +751,12 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -684,8 +766,12 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
@@ -695,8 +781,12 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -706,8 +796,12 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
@@ -717,8 +811,12 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>901</v>
       </c>
@@ -728,8 +826,12 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>902</v>
       </c>
@@ -739,8 +841,12 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
@@ -750,8 +856,12 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1001</v>
       </c>
@@ -761,8 +871,12 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>11</v>
       </c>
@@ -772,8 +886,12 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
@@ -783,8 +901,12 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>13</v>
       </c>
@@ -794,8 +916,12 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>14</v>
       </c>
@@ -804,6 +930,10 @@
       </c>
       <c r="C32" t="s">
         <v>7</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/Programming/TellMeWhatToEat/docs/data/questions/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="-80" windowWidth="8140" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -132,19 +127,33 @@
   </si>
   <si>
     <t>Quick?</t>
+  </si>
+  <si>
+    <t>Tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +183,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -261,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -438,23 +447,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +476,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,338 +490,473 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>IF(A2&lt;10, 1, IF(A2&lt;100, 2, IF(A2&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>IF(A3&lt;10, 1, IF(A3&lt;100, 2, IF(A3&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>IF(A4&lt;10, 1, IF(A4&lt;100, 2, IF(A4&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>IF(A5&lt;10, 1, IF(A5&lt;100, 2, IF(A5&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>IF(A6&lt;10, 1, IF(A6&lt;100, 2, IF(A6&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>IF(A7&lt;10, 1, IF(A7&lt;100, 2, IF(A7&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>IF(A8&lt;10, 1, IF(A8&lt;100, 2, IF(A8&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>IF(A9&lt;10, 1, IF(A9&lt;100, 2, IF(A9&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>IF(A10&lt;10, 1, IF(A10&lt;100, 2, IF(A10&lt;10000, 3, 4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>IF(A11&lt;10, 1, IF(A11&lt;100, 2, IF(A11&lt;10000, 3, 4)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f>IF(A12&lt;10, 1, IF(A12&lt;100, 2, IF(A12&lt;10000, 3, 4)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <f>IF(A13&lt;10, 1, IF(A13&lt;100, 2, IF(A13&lt;10000, 3, 4)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f>IF(A14&lt;10, 1, IF(A14&lt;100, 2, IF(A14&lt;10000, 3, 4)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <f>IF(A15&lt;10, 1, IF(A15&lt;100, 2, IF(A15&lt;10000, 3, 4)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f>IF(A16&lt;10, 1, IF(A16&lt;100, 2, IF(A16&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f>IF(A17&lt;10, 1, IF(A17&lt;100, 2, IF(A17&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>201</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f>IF(A18&lt;10, 1, IF(A18&lt;100, 2, IF(A18&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f>IF(A19&lt;10, 1, IF(A19&lt;100, 2, IF(A19&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f>IF(A20&lt;10, 1, IF(A20&lt;100, 2, IF(A20&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>302</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <f>IF(A21&lt;10, 1, IF(A21&lt;100, 2, IF(A21&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>901</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f>IF(A22&lt;10, 1, IF(A22&lt;100, 2, IF(A22&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>902</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f>IF(A23&lt;10, 1, IF(A23&lt;100, 2, IF(A23&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>IF(A24&lt;10, 1, IF(A24&lt;100, 2, IF(A24&lt;10000, 3, 4)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>20101</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>IF(A25&lt;10, 1, IF(A25&lt;100, 2, IF(A25&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>20102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <f>IF(A26&lt;10, 1, IF(A26&lt;100, 2, IF(A26&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>20103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <f>IF(A27&lt;10, 1, IF(A27&lt;100, 2, IF(A27&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>20104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f>IF(A28&lt;10, 1, IF(A28&lt;100, 2, IF(A28&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>20201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>IF(A29&lt;10, 1, IF(A29&lt;100, 2, IF(A29&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>20203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <f>IF(A30&lt;10, 1, IF(A30&lt;100, 2, IF(A30&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>2010101</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f>IF(A31&lt;10, 1, IF(A31&lt;100, 2, IF(A31&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>2010201</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20201</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20203</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>301</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>302</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>901</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>902</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1001</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
+      <c r="D32">
+        <f>IF(A32&lt;10, 1, IF(A32&lt;100, 2, IF(A32&lt;10000, 3, 4)))</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A2:D32">
+    <sortCondition ref="A3:A32"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/Programming/TellMeWhatToEat/docs/data/questions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="-80" windowWidth="8140" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="460" windowWidth="10000" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -129,21 +134,14 @@
     <t>Quick?</t>
   </si>
   <si>
-    <t>Tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>tier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,7 +181,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -447,26 +445,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,11 +489,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <f>IF(A2&lt;10, 1, IF(A2&lt;100, 2, IF(A2&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -506,11 +503,10 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f>IF(A3&lt;10, 1, IF(A3&lt;100, 2, IF(A3&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -521,11 +517,10 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>IF(A4&lt;10, 1, IF(A4&lt;100, 2, IF(A4&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -536,11 +531,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f>IF(A5&lt;10, 1, IF(A5&lt;100, 2, IF(A5&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,11 +545,10 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <f>IF(A6&lt;10, 1, IF(A6&lt;100, 2, IF(A6&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -566,11 +559,10 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <f>IF(A7&lt;10, 1, IF(A7&lt;100, 2, IF(A7&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -581,11 +573,10 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <f>IF(A8&lt;10, 1, IF(A8&lt;100, 2, IF(A8&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -596,11 +587,10 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <f>IF(A9&lt;10, 1, IF(A9&lt;100, 2, IF(A9&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -611,11 +601,10 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <f>IF(A10&lt;10, 1, IF(A10&lt;100, 2, IF(A10&lt;10000, 3, 4)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -626,11 +615,10 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f>IF(A11&lt;10, 1, IF(A11&lt;100, 2, IF(A11&lt;10000, 3, 4)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -641,11 +629,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <f>IF(A12&lt;10, 1, IF(A12&lt;100, 2, IF(A12&lt;10000, 3, 4)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -656,11 +643,10 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <f>IF(A13&lt;10, 1, IF(A13&lt;100, 2, IF(A13&lt;10000, 3, 4)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -671,11 +657,10 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <f>IF(A14&lt;10, 1, IF(A14&lt;100, 2, IF(A14&lt;10000, 3, 4)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -686,11 +671,10 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <f>IF(A15&lt;10, 1, IF(A15&lt;100, 2, IF(A15&lt;10000, 3, 4)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>101</v>
       </c>
@@ -701,11 +685,10 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <f>IF(A16&lt;10, 1, IF(A16&lt;100, 2, IF(A16&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>102</v>
       </c>
@@ -716,11 +699,10 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <f>IF(A17&lt;10, 1, IF(A17&lt;100, 2, IF(A17&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>201</v>
       </c>
@@ -731,11 +713,10 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <f>IF(A18&lt;10, 1, IF(A18&lt;100, 2, IF(A18&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>202</v>
       </c>
@@ -746,11 +727,10 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <f>IF(A19&lt;10, 1, IF(A19&lt;100, 2, IF(A19&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>301</v>
       </c>
@@ -761,11 +741,10 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <f>IF(A20&lt;10, 1, IF(A20&lt;100, 2, IF(A20&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>302</v>
       </c>
@@ -776,11 +755,10 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <f>IF(A21&lt;10, 1, IF(A21&lt;100, 2, IF(A21&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>901</v>
       </c>
@@ -791,11 +769,10 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <f>IF(A22&lt;10, 1, IF(A22&lt;100, 2, IF(A22&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>902</v>
       </c>
@@ -806,11 +783,10 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <f>IF(A23&lt;10, 1, IF(A23&lt;100, 2, IF(A23&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1001</v>
       </c>
@@ -821,11 +797,10 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <f>IF(A24&lt;10, 1, IF(A24&lt;100, 2, IF(A24&lt;10000, 3, 4)))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20101</v>
       </c>
@@ -836,11 +811,10 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f>IF(A25&lt;10, 1, IF(A25&lt;100, 2, IF(A25&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20102</v>
       </c>
@@ -851,11 +825,10 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <f>IF(A26&lt;10, 1, IF(A26&lt;100, 2, IF(A26&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20103</v>
       </c>
@@ -866,11 +839,10 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <f>IF(A27&lt;10, 1, IF(A27&lt;100, 2, IF(A27&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20104</v>
       </c>
@@ -881,11 +853,10 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <f>IF(A28&lt;10, 1, IF(A28&lt;100, 2, IF(A28&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20201</v>
       </c>
@@ -896,11 +867,10 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <f>IF(A29&lt;10, 1, IF(A29&lt;100, 2, IF(A29&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20203</v>
       </c>
@@ -911,11 +881,10 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <f>IF(A30&lt;10, 1, IF(A30&lt;100, 2, IF(A30&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2010101</v>
       </c>
@@ -926,11 +895,10 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <f>IF(A31&lt;10, 1, IF(A31&lt;100, 2, IF(A31&lt;10000, 3, 4)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2010201</v>
       </c>
@@ -941,22 +909,15 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <f>IF(A32&lt;10, 1, IF(A32&lt;100, 2, IF(A32&lt;10000, 3, 4)))</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:D32">
     <sortCondition ref="A3:A32"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="460" windowWidth="10000" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>European/American, Asian, Other?</t>
-  </si>
-  <si>
     <t>Latin American,  European,  American?</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Breakfast or Brunch?</t>
   </si>
   <si>
-    <t>Kosher, Halal, No Preference?</t>
-  </si>
-  <si>
     <t>Mexican?</t>
   </si>
   <si>
@@ -135,6 +129,18 @@
   </si>
   <si>
     <t>tier</t>
+  </si>
+  <si>
+    <t>Asian?</t>
+  </si>
+  <si>
+    <t>Poke?</t>
+  </si>
+  <si>
+    <t>Ice Cream?</t>
+  </si>
+  <si>
+    <t>American?</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -511,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -525,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -539,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -553,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -567,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -581,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -595,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -609,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -620,44 +626,44 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -707,7 +713,7 @@
         <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -721,7 +727,7 @@
         <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -735,7 +741,7 @@
         <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -749,7 +755,7 @@
         <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -763,7 +769,7 @@
         <v>901</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -777,7 +783,7 @@
         <v>902</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -791,7 +797,7 @@
         <v>1001</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -805,7 +811,7 @@
         <v>20101</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -819,7 +825,7 @@
         <v>20102</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -833,7 +839,7 @@
         <v>20103</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -847,7 +853,7 @@
         <v>20104</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -861,7 +867,7 @@
         <v>20201</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -875,7 +881,7 @@
         <v>20203</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -889,7 +895,7 @@
         <v>2010101</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -903,12 +909,40 @@
         <v>2010201</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
         <v>4</v>
       </c>
     </row>

--- a/docs/data/questions/questions.xlsx
+++ b/docs/data/questions/questions.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,10 +556,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -598,38 +598,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -654,41 +654,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -696,13 +696,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>302</v>
+        <v>901</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>902</v>
+        <v>1001</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -794,27 +794,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1001</v>
+        <v>20101</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>20101</v>
+        <v>20102</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>20102</v>
+        <v>20103</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20103</v>
+        <v>20104</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>20104</v>
+        <v>20201</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>20201</v>
+        <v>20203</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20203</v>
+        <v>2010101</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2010101</v>
+        <v>2010201</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2010201</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
